--- a/biology/Histoire de la zoologie et de la botanique/Carl_Frederick_Kauffeld/Carl_Frederick_Kauffeld.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carl_Frederick_Kauffeld/Carl_Frederick_Kauffeld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carl Frederick Kauffeld, né le 17 avril 1911 à Philadelphie et mort le 10 juillet 1974 à Staten Island est un herpétologiste américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est la lecture du livre sur les reptiles de Raymond Lee Ditmars, Reptile Book, alors qu’il n’avait que neuf ans, qui l’incite à s’intéresser à ces animaux. Durant ses études secondaires, il est bénévole à l’Academy of Natural Sciences of Philadelphia dans le département d’entomologie mais aussi au zoo de la ville en herpétologie. Après ses études, il fait partie du département d’herpétologie de l’American Museum of Natural History dirigé par Gladwyn Kingsley Noble de 1930 à 1936.
 Il préfère, à une carrière dans un muséum, le contact avec des animaux vivants et il accepte, en 1936, un poste de conservateur des reptiles au zoo de Staten Island. Il développe alors l’une des principales collections de reptiles vivants des États-Unis. Il s’enorgueillit ainsi d’exposer toutes les espèces de serpents à sonnettes du pays. Son expérience est mise à profit durant la Seconde Guerre mondiale où il sert comme spécialiste des reptiles dans le service sanitaire des armées.
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’herpétologie                    </t>
